--- a/Archivos/archivo_oanda.xlsx
+++ b/Archivos/archivo_oanda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\ITESO\7mo Semestre\Trading\LAB_2_CENT\LAB_2_CENT\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{802667FE-DDD6-4CD6-9B7A-33E0C7FF3235}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BEEA0CA3-2711-40DE-BE34-9ABAC7003198}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{802667FE-DDD6-4CD6-9B7A-33E0C7FF3235}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EF8B655A-F8E3-4AA9-B11A-942D414FAE27}"/>
   <bookViews>
-    <workbookView xWindow="12888" yWindow="636" windowWidth="17280" windowHeight="8964" xr2:uid="{F398E522-AA05-4BA6-94EB-47EE8167802E}"/>
+    <workbookView xWindow="5760" yWindow="636" windowWidth="17280" windowHeight="8964" xr2:uid="{F398E522-AA05-4BA6-94EB-47EE8167802E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -645,13 +645,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9786984-3ACB-4420-B4E4-536BF29EF924}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">

--- a/Archivos/archivo_oanda.xlsx
+++ b/Archivos/archivo_oanda.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\ITESO\7mo Semestre\Trading\LAB_2_CENT\LAB_2_CENT\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{802667FE-DDD6-4CD6-9B7A-33E0C7FF3235}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EF8B655A-F8E3-4AA9-B11A-942D414FAE27}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{802667FE-DDD6-4CD6-9B7A-33E0C7FF3235}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{302A8DD9-C8DE-4330-9606-FC8DBDDBEE6B}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="636" windowWidth="17280" windowHeight="8964" xr2:uid="{F398E522-AA05-4BA6-94EB-47EE8167802E}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{F398E522-AA05-4BA6-94EB-47EE8167802E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9786984-3ACB-4420-B4E4-536BF29EF924}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Archivos/archivo_oanda.xlsx
+++ b/Archivos/archivo_oanda.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\ITESO\7mo Semestre\Trading\LAB_2_CENT\LAB_2_CENT\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{802667FE-DDD6-4CD6-9B7A-33E0C7FF3235}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{302A8DD9-C8DE-4330-9606-FC8DBDDBEE6B}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{802667FE-DDD6-4CD6-9B7A-33E0C7FF3235}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1F5D239C-7AB4-4E2A-A7E5-2F11B8E71BC8}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{F398E522-AA05-4BA6-94EB-47EE8167802E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F398E522-AA05-4BA6-94EB-47EE8167802E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
-  <si>
-    <t>Open Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
   <si>
     <t>Type</t>
   </si>
@@ -42,75 +39,45 @@
     <t>Size</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Close Time</t>
-  </si>
-  <si>
-    <t>2020.02.06 15:56:07</t>
-  </si>
-  <si>
     <t>balance</t>
   </si>
   <si>
-    <t>ADJUSTMENT</t>
-  </si>
-  <si>
     <t>2020.02.06 16:44:58</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>usdmxn-2</t>
-  </si>
-  <si>
     <t>2020.02.07 23:58:48</t>
   </si>
   <si>
     <t>2020.02.06 16:45:29</t>
   </si>
   <si>
-    <t>wticousd-2</t>
-  </si>
-  <si>
     <t>2020.02.14 19:04:00</t>
   </si>
   <si>
     <t>2020.02.07 00:01:11</t>
   </si>
   <si>
-    <t>Financing</t>
-  </si>
-  <si>
     <t>2020.02.09 00:00:29</t>
   </si>
   <si>
     <t>2020.02.10 01:19:45</t>
   </si>
   <si>
-    <t>xauusd-2</t>
-  </si>
-  <si>
     <t>2020.02.10 01:27:31</t>
   </si>
   <si>
     <t>2020.02.10 01:20:03</t>
   </si>
   <si>
-    <t>xagusd-2</t>
-  </si>
-  <si>
     <t>2020.02.10 01:35:30</t>
   </si>
   <si>
     <t>2020.02.10 01:20:26</t>
   </si>
   <si>
-    <t>natgasusd-2</t>
-  </si>
-  <si>
     <t>2020.02.14 19:04:18</t>
   </si>
   <si>
@@ -162,18 +129,12 @@
     <t>sell</t>
   </si>
   <si>
-    <t>gbpusd-2</t>
-  </si>
-  <si>
     <t>2020.02.20 15:17:09</t>
   </si>
   <si>
     <t>2020.02.10 15:48:56</t>
   </si>
   <si>
-    <t>eurusd-2</t>
-  </si>
-  <si>
     <t>2020.03.02 15:46:29</t>
   </si>
   <si>
@@ -258,31 +219,61 @@
     <t>2020.03.02 16:08:50</t>
   </si>
   <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>s/l</t>
-  </si>
-  <si>
-    <t>t/p</t>
-  </si>
-  <si>
-    <t>taxes</t>
-  </si>
-  <si>
-    <t>swap</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>openprice</t>
-  </si>
-  <si>
-    <t>closeprice</t>
-  </si>
-  <si>
     <t>commission</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>openPrice</t>
+  </si>
+  <si>
+    <t>S/L</t>
+  </si>
+  <si>
+    <t>T/P</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>openTime</t>
+  </si>
+  <si>
+    <t>closeTime</t>
+  </si>
+  <si>
+    <t>closePrice</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>usdmxn</t>
+  </si>
+  <si>
+    <t>wticousd</t>
+  </si>
+  <si>
+    <t>xauusd</t>
+  </si>
+  <si>
+    <t>xagusd</t>
+  </si>
+  <si>
+    <t>natgasusd</t>
+  </si>
+  <si>
+    <t>gbpusd</t>
+  </si>
+  <si>
+    <t>eurusd</t>
   </si>
 </sst>
 </file>
@@ -643,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9786984-3ACB-4420-B4E4-536BF29EF924}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,205 +648,226 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>232895009</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>232892920</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>18.64987</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2">
-        <v>5000</v>
+      <c r="J2">
+        <v>18.760290000000001</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>58.8</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>232895009</v>
+        <v>232895102</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.01</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>50.466000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>51.817999999999998</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>232940070</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>18.64987</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3">
-        <v>18.760290000000001</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>232895102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>50.466000000000001</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <v>51.817999999999998</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>1.35</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>232940070</v>
+        <v>233035632</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>-1.83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>233035632</v>
+        <v>233040917</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>1571.4739999999999</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>1572.1690000000001</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-0.01</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>233040917</v>
+        <v>233040923</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>0.1</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="F7">
-        <v>1571.4739999999999</v>
+        <v>17.717639999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -864,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>1572.1690000000001</v>
+        <v>17.763169999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -879,27 +891,27 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.95</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>233040923</v>
+        <v>233040943</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="F8">
-        <v>17.717639999999999</v>
+        <v>1.8009999999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -908,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J8">
-        <v>17.763169999999999</v>
+        <v>1.843</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -923,27 +935,27 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.77</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>233040943</v>
+        <v>233041150</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F9">
-        <v>1.8009999999999999</v>
+        <v>1572.4190000000001</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -952,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J9">
-        <v>1.843</v>
+        <v>1575.837</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -967,39 +979,39 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.15</v>
+        <v>170.9</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>233041150</v>
+        <v>233041615</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>1576.5550000000001</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="F10">
-        <v>1572.4190000000001</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
       <c r="J10">
-        <v>1575.837</v>
+        <v>1581.5409999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1011,27 +1023,27 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>170.9</v>
+        <v>99.72</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>233041615</v>
+        <v>233041806</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F11">
-        <v>1576.5550000000001</v>
+        <v>1574.06</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1040,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J11">
-        <v>1581.5409999999999</v>
+        <v>1581.6769999999999</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1055,27 +1067,27 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>99.72</v>
+        <v>76.17</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>233041806</v>
+        <v>233045644</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>0.1</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F12">
-        <v>1574.06</v>
+        <v>1572.2090000000001</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1084,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J12">
-        <v>1581.6769999999999</v>
+        <v>1574.2090000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1099,27 +1111,27 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>76.17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>233045644</v>
+        <v>233080280</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>0.1</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F13">
-        <v>1572.2090000000001</v>
+        <v>1.7949999999999999</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1128,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J13">
-        <v>1574.2090000000001</v>
+        <v>1.843</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1143,27 +1155,27 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>233080280</v>
+        <v>233080289</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F14">
-        <v>1.7949999999999999</v>
+        <v>18.770019999999999</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1172,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J14">
-        <v>1.843</v>
+        <v>18.779959999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1187,27 +1199,27 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12</v>
+        <v>26.45</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>233080289</v>
+        <v>233080654</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F15">
-        <v>18.770019999999999</v>
+        <v>1573.125</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1216,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J15">
-        <v>18.779959999999999</v>
+        <v>1574.1489999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1231,27 +1243,27 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>26.45</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>233080654</v>
+        <v>233080692</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F16">
-        <v>1573.125</v>
+        <v>1.29365</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1260,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J16">
-        <v>1574.1489999999999</v>
+        <v>1.2867299999999999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1275,27 +1287,27 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>102.4</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>233080692</v>
+        <v>233081552</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>0.1</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F17">
-        <v>1.29365</v>
+        <v>1.0944700000000001</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1304,10 +1316,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J17">
-        <v>1.2867299999999999</v>
+        <v>1.1124700000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1319,27 +1331,27 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>69.2</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>233081552</v>
+        <v>233081759</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>0.1</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F18">
-        <v>1.0944700000000001</v>
+        <v>18.795449999999999</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1348,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J18">
-        <v>1.1124700000000001</v>
+        <v>18.821670000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1363,190 +1375,169 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>233081759</v>
+        <v>233130921</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>0.1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>18.795449999999999</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19">
-        <v>18.821670000000001</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>13.93</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>233130921</v>
+        <v>233247862</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>-4.8</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>233247862</v>
+        <v>233348268</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>-4.75</v>
+        <v>-18.55</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>233348268</v>
+        <v>233438557</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>-18.55</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>233438557</v>
+        <v>233485667</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>0.08</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>233485667</v>
+        <v>233485676</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>-0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>233485676</v>
+        <v>233485687</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>233485687</v>
+        <v>233485695</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0.3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26">
+        <v>18.57518</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26">
+        <v>18.605</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0.02</v>
+        <v>48.08</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>233485695</v>
+        <v>233485696</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>0.3</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F27">
-        <v>18.57518</v>
+        <v>18.575089999999999</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1555,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>18.605</v>
@@ -1570,27 +1561,27 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>48.08</v>
+        <v>48.22</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>233485696</v>
+        <v>233485705</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F28">
-        <v>18.575089999999999</v>
+        <v>1.0838699999999999</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1599,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J28">
-        <v>18.605</v>
+        <v>1.1124700000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1614,133 +1605,88 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>48.22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>233485705</v>
+        <v>233523297</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>0.1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29">
-        <v>1.0838699999999999</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>59</v>
-      </c>
-      <c r="J29">
-        <v>1.1124700000000001</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>286</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>233523297</v>
+        <v>233599976</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>-1.98</v>
+        <v>-12.37</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>233599976</v>
+        <v>233691459</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>-12.37</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>233691459</v>
+        <v>233776615</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>-12.7</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>233776615</v>
+        <v>233865308</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>-5.88</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>233865308</v>
+        <v>233948520</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <v>-1.93</v>
@@ -1748,33 +1694,27 @@
     </row>
     <row r="35" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>233948520</v>
+        <v>234046982</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>-1.93</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>234046982</v>
+        <v>234148385</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N36">
         <v>-1.94</v>
@@ -1782,90 +1722,108 @@
     </row>
     <row r="37" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>234148385</v>
+        <v>234246479</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>-1.94</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>234246479</v>
+        <v>234349724</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>-5.81</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>234349724</v>
+        <v>234474049</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>-1.95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-2.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>234474049</v>
+        <v>234543258</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40">
+        <v>1594.0630000000001</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40">
+        <v>1596.0519999999999</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>-2.02</v>
+        <v>198.9</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>234543258</v>
+        <v>234543984</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="F41">
-        <v>1594.0630000000001</v>
+        <v>1.1124000000000001</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1874,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J41">
-        <v>1596.0519999999999</v>
+        <v>1.1111899999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -1889,50 +1847,6 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>198.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>234543984</v>
-      </c>
-      <c r="B42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42">
-        <v>1.1124000000000001</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>74</v>
-      </c>
-      <c r="J42">
-        <v>1.1111899999999999</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
         <v>121</v>
       </c>
     </row>
